--- a/8/4/Deuda Externa (Resumen) 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Deuda Externa (Resumen) 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7365,10 +7368,10 @@
         <v>225</v>
       </c>
       <c r="B218">
-        <v>212018</v>
+        <v>210862</v>
       </c>
       <c r="C218">
-        <v>36659</v>
+        <v>36657</v>
       </c>
       <c r="D218">
         <v>1297</v>
@@ -7377,16 +7380,16 @@
         <v>24143</v>
       </c>
       <c r="F218">
-        <v>2122</v>
+        <v>2097</v>
       </c>
       <c r="G218">
-        <v>90004</v>
+        <v>89970</v>
       </c>
       <c r="H218">
-        <v>57792</v>
+        <v>56697</v>
       </c>
       <c r="I218">
-        <v>204990</v>
+        <v>203821</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7394,10 +7397,10 @@
         <v>226</v>
       </c>
       <c r="B219">
-        <v>210968</v>
+        <v>209836</v>
       </c>
       <c r="C219">
-        <v>35566</v>
+        <v>35564</v>
       </c>
       <c r="D219">
         <v>1655</v>
@@ -7406,16 +7409,16 @@
         <v>23989</v>
       </c>
       <c r="F219">
-        <v>2155</v>
+        <v>2122</v>
       </c>
       <c r="G219">
-        <v>89310</v>
+        <v>89284</v>
       </c>
       <c r="H219">
-        <v>58293</v>
+        <v>57221</v>
       </c>
       <c r="I219">
-        <v>206274</v>
+        <v>205126</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7423,28 +7426,28 @@
         <v>227</v>
       </c>
       <c r="B220">
-        <v>210956</v>
+        <v>209510</v>
       </c>
       <c r="C220">
-        <v>33757</v>
+        <v>33754</v>
       </c>
       <c r="D220">
         <v>1502</v>
       </c>
       <c r="E220">
-        <v>24764</v>
+        <v>24767</v>
       </c>
       <c r="F220">
-        <v>2167</v>
+        <v>2125</v>
       </c>
       <c r="G220">
-        <v>90433</v>
+        <v>90203</v>
       </c>
       <c r="H220">
-        <v>58333</v>
+        <v>57157</v>
       </c>
       <c r="I220">
-        <v>207155</v>
+        <v>205567</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7452,28 +7455,28 @@
         <v>228</v>
       </c>
       <c r="B221">
-        <v>214849</v>
+        <v>213397</v>
       </c>
       <c r="C221">
-        <v>35863</v>
+        <v>35862</v>
       </c>
       <c r="D221">
         <v>1275</v>
       </c>
       <c r="E221">
-        <v>24591</v>
+        <v>24594</v>
       </c>
       <c r="F221">
-        <v>2173</v>
+        <v>2131</v>
       </c>
       <c r="G221">
-        <v>91585</v>
+        <v>91320</v>
       </c>
       <c r="H221">
-        <v>59362</v>
+        <v>58214</v>
       </c>
       <c r="I221">
-        <v>211007</v>
+        <v>209412</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7481,10 +7484,10 @@
         <v>229</v>
       </c>
       <c r="B222">
-        <v>216184</v>
+        <v>214870</v>
       </c>
       <c r="C222">
-        <v>37595</v>
+        <v>37594</v>
       </c>
       <c r="D222">
         <v>1290</v>
@@ -7493,16 +7496,45 @@
         <v>25138</v>
       </c>
       <c r="F222">
-        <v>2139</v>
+        <v>2100</v>
       </c>
       <c r="G222">
-        <v>91203</v>
+        <v>90877</v>
       </c>
       <c r="H222">
-        <v>58819</v>
+        <v>57870</v>
       </c>
       <c r="I222">
-        <v>212843</v>
+        <v>211503</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223">
+        <v>213283</v>
+      </c>
+      <c r="C223">
+        <v>37860</v>
+      </c>
+      <c r="D223">
+        <v>1265</v>
+      </c>
+      <c r="E223">
+        <v>24276</v>
+      </c>
+      <c r="F223">
+        <v>2081</v>
+      </c>
+      <c r="G223">
+        <v>91116</v>
+      </c>
+      <c r="H223">
+        <v>56685</v>
+      </c>
+      <c r="I223">
+        <v>209472</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/Deuda Externa (Resumen) 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Deuda Externa (Resumen) 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Serie</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7537,6 +7540,35 @@
         <v>209472</v>
       </c>
     </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224">
+        <v>224053</v>
+      </c>
+      <c r="C224">
+        <v>44869</v>
+      </c>
+      <c r="D224">
+        <v>1267</v>
+      </c>
+      <c r="E224">
+        <v>25770</v>
+      </c>
+      <c r="F224">
+        <v>2165</v>
+      </c>
+      <c r="G224">
+        <v>92903</v>
+      </c>
+      <c r="H224">
+        <v>57080</v>
+      </c>
+      <c r="I224">
+        <v>219638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/Deuda Externa (Resumen) 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Deuda Externa (Resumen) 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Serie</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7569,6 +7572,35 @@
         <v>219638</v>
       </c>
     </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225">
+        <v>229192</v>
+      </c>
+      <c r="C225">
+        <v>45157</v>
+      </c>
+      <c r="D225">
+        <v>3643</v>
+      </c>
+      <c r="E225">
+        <v>25981</v>
+      </c>
+      <c r="F225">
+        <v>2232</v>
+      </c>
+      <c r="G225">
+        <v>95179</v>
+      </c>
+      <c r="H225">
+        <v>57000</v>
+      </c>
+      <c r="I225">
+        <v>224449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/Deuda Externa (Resumen) 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Deuda Externa (Resumen) 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7601,6 +7604,35 @@
         <v>224449</v>
       </c>
     </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226">
+        <v>233155</v>
+      </c>
+      <c r="C226">
+        <v>44254</v>
+      </c>
+      <c r="D226">
+        <v>3604</v>
+      </c>
+      <c r="E226">
+        <v>27333</v>
+      </c>
+      <c r="F226">
+        <v>2196</v>
+      </c>
+      <c r="G226">
+        <v>98846</v>
+      </c>
+      <c r="H226">
+        <v>56921</v>
+      </c>
+      <c r="I226">
+        <v>231266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
